--- a/data/trans_orig/P17E-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>31667</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22425</v>
+        <v>23031</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40742</v>
+        <v>40722</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3994830138745913</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2828930587665949</v>
+        <v>0.2905430223945374</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5139643442063208</v>
+        <v>0.5137118624602788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -765,19 +765,19 @@
         <v>26298</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18428</v>
+        <v>19317</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35749</v>
+        <v>34600</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3506681700378711</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2457352603238514</v>
+        <v>0.2575815470589947</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4766997441480582</v>
+        <v>0.4613827015974311</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -786,19 +786,19 @@
         <v>57965</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46537</v>
+        <v>46343</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70167</v>
+        <v>70884</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3757524046375671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3016700313519778</v>
+        <v>0.3004142351235977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4548510786153264</v>
+        <v>0.4595036003284336</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>47603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38528</v>
+        <v>38548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56845</v>
+        <v>56239</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6005169861254087</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4860356557936794</v>
+        <v>0.4862881375397215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7171069412334051</v>
+        <v>0.7094569776054626</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -836,19 +836,19 @@
         <v>48695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39244</v>
+        <v>40393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56565</v>
+        <v>55676</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6493318299621289</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.523300255851942</v>
+        <v>0.538617298402569</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7542647396761488</v>
+        <v>0.7424184529410053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -857,19 +857,19 @@
         <v>96298</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84096</v>
+        <v>83379</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107726</v>
+        <v>107920</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6242475953624329</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5451489213846743</v>
+        <v>0.5404963996715664</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6983299686480225</v>
+        <v>0.6995857648764024</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12713</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7183</v>
+        <v>7089</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20232</v>
+        <v>20229</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2033741708161801</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1149112947152133</v>
+        <v>0.1133996743318169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.323658987680164</v>
+        <v>0.3236006954336205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -982,19 +982,19 @@
         <v>26526</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17913</v>
+        <v>18212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37174</v>
+        <v>36598</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2695439338500324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1820237969239766</v>
+        <v>0.1850681262599165</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3777504176987282</v>
+        <v>0.3719010066973713</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -1003,19 +1003,19 @@
         <v>39239</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28341</v>
+        <v>28206</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50761</v>
+        <v>51539</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2438397832833451</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1761192620928953</v>
+        <v>0.1752780228017949</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3154439517551014</v>
+        <v>0.3202789689334659</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>49798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42279</v>
+        <v>42282</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55328</v>
+        <v>55422</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7966258291838199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6763410123198359</v>
+        <v>0.6763993045663794</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8850887052847866</v>
+        <v>0.8866003256681828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -1053,19 +1053,19 @@
         <v>71883</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61235</v>
+        <v>61811</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80496</v>
+        <v>80197</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7304560661499676</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6222495823012731</v>
+        <v>0.6280989933026286</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8179762030760236</v>
+        <v>0.8149318737400835</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>119</v>
@@ -1074,19 +1074,19 @@
         <v>121681</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110159</v>
+        <v>109381</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>132579</v>
+        <v>132714</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7561602167166549</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6845560482448986</v>
+        <v>0.6797210310665341</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8238807379071046</v>
+        <v>0.8247219771982049</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>22811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15797</v>
+        <v>15392</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32345</v>
+        <v>32315</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1944181980354479</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1346381847592727</v>
+        <v>0.1311884092448206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2756781130731811</v>
+        <v>0.2754161256195</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1199,19 +1199,19 @@
         <v>15089</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9142</v>
+        <v>8792</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23557</v>
+        <v>22961</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2547072515250342</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1543243746667529</v>
+        <v>0.1484052663485837</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3976609656882951</v>
+        <v>0.3875917234970397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1220,19 +1220,19 @@
         <v>37900</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28022</v>
+        <v>27019</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49776</v>
+        <v>49441</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2146454320152842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1587016961459368</v>
+        <v>0.1530211372894184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2819047317456715</v>
+        <v>0.2800065598025262</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>94519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84985</v>
+        <v>85015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101533</v>
+        <v>101938</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8055818019645521</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7243218869268191</v>
+        <v>0.7245838743805</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8653618152407272</v>
+        <v>0.8688115907551794</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -1270,19 +1270,19 @@
         <v>44151</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35683</v>
+        <v>36279</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50098</v>
+        <v>50448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7452927484749657</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.602339034311704</v>
+        <v>0.6124082765029601</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8456756253332471</v>
+        <v>0.8515947336514162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>140</v>
@@ -1291,19 +1291,19 @@
         <v>138670</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>126794</v>
+        <v>127129</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>148548</v>
+        <v>149551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7853545679847158</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7180952682543286</v>
+        <v>0.7199934401974739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8412983038540638</v>
+        <v>0.8469788627105815</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>40429</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29350</v>
+        <v>30286</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52561</v>
+        <v>53790</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1397597579624248</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1014594424935479</v>
+        <v>0.104696528773911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1816987858147107</v>
+        <v>0.1859480675126151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1416,19 +1416,19 @@
         <v>44698</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33859</v>
+        <v>32656</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57910</v>
+        <v>57605</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2009147882889878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1521955183652113</v>
+        <v>0.1467875516390821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2603034684905219</v>
+        <v>0.2589359995592699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -1437,19 +1437,19 @@
         <v>85127</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70275</v>
+        <v>69807</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102789</v>
+        <v>103337</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1663454761534454</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1373246261925399</v>
+        <v>0.1364089243934893</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2008593792623284</v>
+        <v>0.2019298996357697</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>248848</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>236716</v>
+        <v>235487</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>259927</v>
+        <v>258991</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8602402420375752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8183012141852892</v>
+        <v>0.8140519324873849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8985405575064517</v>
+        <v>0.895303471226089</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>175</v>
@@ -1487,19 +1487,19 @@
         <v>177772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>164560</v>
+        <v>164865</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>188611</v>
+        <v>189814</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7990852117110122</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7396965315094777</v>
+        <v>0.7410640004407301</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8478044816347887</v>
+        <v>0.8532124483609178</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>426</v>
@@ -1508,19 +1508,19 @@
         <v>426620</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>408958</v>
+        <v>408410</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>441472</v>
+        <v>441940</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8336545238465547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7991406207376716</v>
+        <v>0.7980701003642303</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8626753738074601</v>
+        <v>0.8635910756065107</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>14693</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8272</v>
+        <v>8414</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23147</v>
+        <v>23167</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1771710592391602</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09974734621335464</v>
+        <v>0.1014601865533874</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2791203652531873</v>
+        <v>0.2793516293040664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1633,19 +1633,19 @@
         <v>34428</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24454</v>
+        <v>24342</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45708</v>
+        <v>45523</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1727173078949771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1226810919423885</v>
+        <v>0.1221186089559873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.229308066723566</v>
+        <v>0.2283776534914057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1654,19 +1654,19 @@
         <v>49121</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36872</v>
+        <v>36344</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62593</v>
+        <v>63216</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1740258533806011</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1306302301690947</v>
+        <v>0.1287599293232372</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2217579769689158</v>
+        <v>0.2239633204378628</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>68237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59783</v>
+        <v>59763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74658</v>
+        <v>74516</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8228289407608398</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7208796347468127</v>
+        <v>0.7206483706959333</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9002526537866453</v>
+        <v>0.8985398134466127</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -1704,19 +1704,19 @@
         <v>164902</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153622</v>
+        <v>153807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174876</v>
+        <v>174988</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8272826921050229</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.770691933276434</v>
+        <v>0.7716223465085942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8773189080576116</v>
+        <v>0.8778813910440125</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -1725,19 +1725,19 @@
         <v>233139</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>219667</v>
+        <v>219044</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>245388</v>
+        <v>245916</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8259741466193989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7782420230310841</v>
+        <v>0.7760366795621375</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8693697698309054</v>
+        <v>0.8712400706767631</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>7148</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2880</v>
+        <v>2979</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11997</v>
+        <v>12029</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2852400490711965</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1149382123745594</v>
+        <v>0.1188681566923354</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4787318596141694</v>
+        <v>0.4799703567811174</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1850,19 +1850,19 @@
         <v>63816</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50592</v>
+        <v>50905</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80150</v>
+        <v>79823</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1619999763685337</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1284297260450828</v>
+        <v>0.1292233673005093</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2034636338282591</v>
+        <v>0.2026331491260716</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -1871,19 +1871,19 @@
         <v>70965</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57260</v>
+        <v>57186</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86784</v>
+        <v>87151</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1693713274561322</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1366615082564583</v>
+        <v>0.1364847532780022</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2071272613531988</v>
+        <v>0.2080023320683919</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>17913</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13064</v>
+        <v>13032</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22181</v>
+        <v>22082</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7147599509288034</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5212681403858306</v>
+        <v>0.520029643218883</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8850617876254406</v>
+        <v>0.8811318433076647</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>324</v>
@@ -1921,19 +1921,19 @@
         <v>330112</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>313778</v>
+        <v>314105</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>343336</v>
+        <v>343023</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8380000236314663</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7965363661717408</v>
+        <v>0.7973668508739282</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8715702739549172</v>
+        <v>0.8707766326994905</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>343</v>
@@ -1942,19 +1942,19 @@
         <v>348024</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>332205</v>
+        <v>331838</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>361729</v>
+        <v>361803</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8306286725438679</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7928727386468012</v>
+        <v>0.7919976679316081</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8633384917435418</v>
+        <v>0.863515246721998</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>129462</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>110775</v>
+        <v>109803</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>150916</v>
+        <v>149274</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1972363075293501</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1687675842600989</v>
+        <v>0.1672856277004672</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.229921462363075</v>
+        <v>0.2274201243832338</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>202</v>
@@ -2067,19 +2067,19 @@
         <v>210854</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>187173</v>
+        <v>185204</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>238209</v>
+        <v>236783</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.201125216867155</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1785368794246313</v>
+        <v>0.176659003874954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2272182149675497</v>
+        <v>0.2258585717630131</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>331</v>
@@ -2088,19 +2088,19 @@
         <v>340315</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>310454</v>
+        <v>307190</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>375283</v>
+        <v>374490</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1996278709430729</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1821114658712067</v>
+        <v>0.1801964184061188</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.220139447308159</v>
+        <v>0.219674511532693</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>526917</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>505463</v>
+        <v>507105</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>545604</v>
+        <v>546576</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8027636924706498</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.770078537636925</v>
+        <v>0.7725798756167663</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.831232415739901</v>
+        <v>0.8327143722995329</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>820</v>
@@ -2138,19 +2138,19 @@
         <v>837516</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>810161</v>
+        <v>811587</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>861197</v>
+        <v>863166</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.798874783132845</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7727817850324504</v>
+        <v>0.774141428236987</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8214631205753687</v>
+        <v>0.8233409961250461</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1349</v>
@@ -2159,19 +2159,19 @@
         <v>1364434</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1329466</v>
+        <v>1330259</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1394295</v>
+        <v>1397559</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8003721290569271</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7798605526918412</v>
+        <v>0.7803254884673071</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8178885341287934</v>
+        <v>0.8198035815938818</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>15717</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9162</v>
+        <v>9512</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25052</v>
+        <v>24444</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2020041836514761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1177588892649639</v>
+        <v>0.1222613117525716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3219932966492775</v>
+        <v>0.3141751107725374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2526,19 +2526,19 @@
         <v>17363</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11223</v>
+        <v>10795</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26734</v>
+        <v>26413</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2203673669920839</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1424404162162419</v>
+        <v>0.137006727794104</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3393023841576173</v>
+        <v>0.3352307848121611</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -2547,19 +2547,19 @@
         <v>33079</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23512</v>
+        <v>22464</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44467</v>
+        <v>44641</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2112436755675629</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.150145820908057</v>
+        <v>0.1434521049572422</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2839643788022775</v>
+        <v>0.2850743897150221</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>62086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52751</v>
+        <v>53359</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68641</v>
+        <v>68291</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7979958163485239</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6780067033507226</v>
+        <v>0.6858248892274623</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8822411107350361</v>
+        <v>0.8777386882474284</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -2597,19 +2597,19 @@
         <v>61427</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52056</v>
+        <v>52377</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67567</v>
+        <v>67995</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7796326330079161</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6606976158423826</v>
+        <v>0.6647692151878389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8575595837837581</v>
+        <v>0.8629932722058961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -2618,19 +2618,19 @@
         <v>123514</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>112126</v>
+        <v>111952</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>133081</v>
+        <v>134129</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7887563244324372</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7160356211977223</v>
+        <v>0.7149256102849779</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8498541790919431</v>
+        <v>0.8565478950427577</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>27669</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18578</v>
+        <v>17975</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37427</v>
+        <v>38661</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2881511134912899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1934758016961016</v>
+        <v>0.1871936063254576</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3897787967060665</v>
+        <v>0.4026295155300492</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -2743,19 +2743,19 @@
         <v>22471</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14428</v>
+        <v>14220</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31310</v>
+        <v>31858</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2321519815846272</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1490619970611748</v>
+        <v>0.146907698397897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3234688442213203</v>
+        <v>0.3291280136105433</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -2764,19 +2764,19 @@
         <v>50140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37926</v>
+        <v>37784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63853</v>
+        <v>63707</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2600390944685887</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1966944824488733</v>
+        <v>0.1959607721670625</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3311597079500097</v>
+        <v>0.3304023431900254</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>68352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58594</v>
+        <v>57360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77443</v>
+        <v>78046</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7118488865087101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6102212032939335</v>
+        <v>0.5973704844699506</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8065241983038983</v>
+        <v>0.8128063936745422</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -2814,19 +2814,19 @@
         <v>74324</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65485</v>
+        <v>64937</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82367</v>
+        <v>82575</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7678480184153728</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6765311557786797</v>
+        <v>0.6708719863894564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8509380029388253</v>
+        <v>0.853092301602103</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>128</v>
@@ -2835,19 +2835,19 @@
         <v>142676</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>128963</v>
+        <v>129109</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>154890</v>
+        <v>155032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7399609055314113</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6688402920499905</v>
+        <v>0.6695976568099744</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8033055175511267</v>
+        <v>0.8040392278329372</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>40528</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30299</v>
+        <v>30672</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53485</v>
+        <v>53458</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2593348548441218</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1938846378034685</v>
+        <v>0.1962691684793519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3422504942339821</v>
+        <v>0.3420772030964712</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -2960,19 +2960,19 @@
         <v>16367</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10284</v>
+        <v>10091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26101</v>
+        <v>25813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.175982087402525</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1105683384694171</v>
+        <v>0.1084981565924554</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2806365768587151</v>
+        <v>0.2775436730275337</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -2981,19 +2981,19 @@
         <v>56895</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42734</v>
+        <v>43802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70347</v>
+        <v>70418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.228236244748178</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1714273239155109</v>
+        <v>0.1757138549738554</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2821987604060891</v>
+        <v>0.2824856627228255</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>115747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102790</v>
+        <v>102817</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>125976</v>
+        <v>125603</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7406651451558781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6577495057660179</v>
+        <v>0.657922796903529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8061153621965317</v>
+        <v>0.8037308315206483</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -3031,19 +3031,19 @@
         <v>76639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66905</v>
+        <v>67193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>82722</v>
+        <v>82915</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.824017912597475</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7193634231412851</v>
+        <v>0.7224563269724664</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.889431661530583</v>
+        <v>0.8915018434075446</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>179</v>
@@ -3052,19 +3052,19 @@
         <v>192386</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>178934</v>
+        <v>178863</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>206547</v>
+        <v>205479</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7717637552518219</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7178012395939111</v>
+        <v>0.7175143372771745</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8285726760844891</v>
+        <v>0.8242861450261457</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>51097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37934</v>
+        <v>38622</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65840</v>
+        <v>65799</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1700214693064461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1262211065517608</v>
+        <v>0.12851105113336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2190773203222136</v>
+        <v>0.2189392054410928</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -3177,19 +3177,19 @@
         <v>54645</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42826</v>
+        <v>42112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69900</v>
+        <v>69681</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2192829669857962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1718522700578968</v>
+        <v>0.1689879921873797</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2804988845477616</v>
+        <v>0.2796169976778676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -3198,19 +3198,19 @@
         <v>105743</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88132</v>
+        <v>88728</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125209</v>
+        <v>126187</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1923521931630768</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1603164350339054</v>
+        <v>0.1614014923614613</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2277628979809682</v>
+        <v>0.2295406982668358</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>249437</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234694</v>
+        <v>234735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>262600</v>
+        <v>261912</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8299785306935539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7809226796777865</v>
+        <v>0.7810607945589072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8737788934482392</v>
+        <v>0.87148894886664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>177</v>
@@ -3248,19 +3248,19 @@
         <v>194555</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>179300</v>
+        <v>179519</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>206374</v>
+        <v>207088</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7807170330142038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7195011154522384</v>
+        <v>0.7203830023221325</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8281477299421033</v>
+        <v>0.8310120078126203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>407</v>
@@ -3269,19 +3269,19 @@
         <v>443992</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>424526</v>
+        <v>423548</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>461603</v>
+        <v>461007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8076478068369232</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7722371020190318</v>
+        <v>0.7704593017331642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8396835649660945</v>
+        <v>0.8385985076385387</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>17325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10683</v>
+        <v>10488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26408</v>
+        <v>25983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1601337526024445</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09874033812916068</v>
+        <v>0.09693582942547201</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.244086945347805</v>
+        <v>0.240160485908927</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -3394,19 +3394,19 @@
         <v>37935</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27788</v>
+        <v>27743</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50791</v>
+        <v>50790</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1363626135907141</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09988811234842532</v>
+        <v>0.09972610896474894</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1825753817509493</v>
+        <v>0.1825707319223059</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -3415,19 +3415,19 @@
         <v>55260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41584</v>
+        <v>43060</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70377</v>
+        <v>70568</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1430187815437621</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1076233329173082</v>
+        <v>0.1114439321497405</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1821429369166801</v>
+        <v>0.1826369348771364</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>90866</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81783</v>
+        <v>82208</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>97508</v>
+        <v>97703</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8398662473975554</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7559130546521953</v>
+        <v>0.7598395140910731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9012596618708394</v>
+        <v>0.903064170574528</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>223</v>
@@ -3465,19 +3465,19 @@
         <v>240256</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>227400</v>
+        <v>227401</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>250403</v>
+        <v>250448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.863637386409286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8174246182490509</v>
+        <v>0.8174292680776941</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9001118876515748</v>
+        <v>0.9002738910352511</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>310</v>
@@ -3486,19 +3486,19 @@
         <v>331122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>316005</v>
+        <v>315814</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>344798</v>
+        <v>343322</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.856981218456238</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8178570630833198</v>
+        <v>0.8173630651228636</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8923766670826919</v>
+        <v>0.8885560678502595</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>8743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3968</v>
+        <v>3987</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15077</v>
+        <v>15724</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2278861271375899</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.103435740649829</v>
+        <v>0.1039139145325493</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.39298852273282</v>
+        <v>0.4098571996799546</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -3611,19 +3611,19 @@
         <v>64526</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50926</v>
+        <v>50544</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79848</v>
+        <v>80538</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1810371948476024</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.142878747290982</v>
+        <v>0.1418077950652513</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2240245829555237</v>
+        <v>0.2259594428688842</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -3632,19 +3632,19 @@
         <v>73269</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58619</v>
+        <v>58890</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89713</v>
+        <v>91279</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1855899298235477</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1484811739508998</v>
+        <v>0.1491667804511123</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.227241931241878</v>
+        <v>0.2312078071619785</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>29622</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23288</v>
+        <v>22641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34397</v>
+        <v>34378</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7721138728624102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6070114772671799</v>
+        <v>0.5901428003200453</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.896564259350171</v>
+        <v>0.8960860854674506</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>274</v>
@@ -3682,19 +3682,19 @@
         <v>291900</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>276578</v>
+        <v>275888</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>305500</v>
+        <v>305882</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8189628051523975</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7759754170444764</v>
+        <v>0.7740405571311159</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8571212527090181</v>
+        <v>0.8581922049347487</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>303</v>
@@ -3703,19 +3703,19 @@
         <v>321522</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>305078</v>
+        <v>303512</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>336172</v>
+        <v>335901</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8144100701764523</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.772758068758122</v>
+        <v>0.7687921928380217</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8515188260491002</v>
+        <v>0.8508332195488879</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>161078</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138267</v>
+        <v>139882</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>182818</v>
+        <v>188651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2072568602026638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1779061455940062</v>
+        <v>0.17998381322165</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2352291687223858</v>
+        <v>0.2427352287463546</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>202</v>
@@ -3828,19 +3828,19 @@
         <v>213308</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>187093</v>
+        <v>185209</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>240566</v>
+        <v>240307</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1850974994070257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.162349358609545</v>
+        <v>0.1607147398970071</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.208750281617579</v>
+        <v>0.2085257921333949</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>353</v>
@@ -3849,19 +3849,19 @@
         <v>374386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>342633</v>
+        <v>341245</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>412491</v>
+        <v>414414</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1940226885395843</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1775669033823851</v>
+        <v>0.1768474376511679</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2137701742569021</v>
+        <v>0.2147667505188647</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>616112</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>594372</v>
+        <v>588539</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638923</v>
+        <v>637308</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7927431397973361</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7647708312776141</v>
+        <v>0.7572647712536454</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8220938544059938</v>
+        <v>0.82001618677835</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>871</v>
@@ -3899,19 +3899,19 @@
         <v>939101</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>911843</v>
+        <v>912102</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>965316</v>
+        <v>967200</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8149025005929743</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.791249718382421</v>
+        <v>0.7914742078666052</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.837650641390455</v>
+        <v>0.8392852601029929</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1435</v>
@@ -3920,19 +3920,19 @@
         <v>1555213</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1517108</v>
+        <v>1515185</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1586966</v>
+        <v>1588354</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8059773114604156</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7862298257430979</v>
+        <v>0.7852332494811353</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8224330966176149</v>
+        <v>0.8231525623488318</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>23649</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16189</v>
+        <v>15411</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34318</v>
+        <v>32475</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2306701913228617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1579096517860182</v>
+        <v>0.1503169497929468</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3347337660676238</v>
+        <v>0.3167630227744854</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -4287,19 +4287,19 @@
         <v>25740</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17715</v>
+        <v>17448</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36007</v>
+        <v>35813</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2685533872590584</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1848239173572009</v>
+        <v>0.1820417733120032</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3756789023226946</v>
+        <v>0.3736487141163163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -4308,19 +4308,19 @@
         <v>49389</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37450</v>
+        <v>38263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63762</v>
+        <v>63707</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2489742501358998</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1887874201607495</v>
+        <v>0.1928868868368351</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3214283582629501</v>
+        <v>0.3211513021887775</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>78874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68205</v>
+        <v>70048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86334</v>
+        <v>87112</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7693298086771383</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6652662339323763</v>
+        <v>0.6832369772255142</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8420903482139819</v>
+        <v>0.8496830502070531</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -4358,19 +4358,19 @@
         <v>70106</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59839</v>
+        <v>60033</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78131</v>
+        <v>78398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7314466127409416</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6243210976773051</v>
+        <v>0.6263512858836841</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8151760826427991</v>
+        <v>0.8179582266879972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -4379,19 +4379,19 @@
         <v>148981</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134608</v>
+        <v>134663</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>160920</v>
+        <v>160107</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7510257498641002</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6785716417370498</v>
+        <v>0.6788486978112224</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8112125798392504</v>
+        <v>0.8071131131631647</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>16857</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10858</v>
+        <v>10373</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26483</v>
+        <v>25808</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1817445758544304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1170602126656935</v>
+        <v>0.1118380083469714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2855279621997481</v>
+        <v>0.2782467005792919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -4504,19 +4504,19 @@
         <v>24041</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15768</v>
+        <v>16854</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33232</v>
+        <v>32646</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2512964760360283</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1648231066800405</v>
+        <v>0.1761655887064654</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3473654133477127</v>
+        <v>0.3412432543284767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -4525,19 +4525,19 @@
         <v>40898</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29754</v>
+        <v>30492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54811</v>
+        <v>53283</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2170588600949004</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1579126439931844</v>
+        <v>0.1618302221347074</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2908956020025549</v>
+        <v>0.2827878081900891</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>75895</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66269</v>
+        <v>66944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>81894</v>
+        <v>82379</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8182554241455696</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7144720378002521</v>
+        <v>0.7217532994207088</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8829397873343069</v>
+        <v>0.8881619916530286</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -4575,19 +4575,19 @@
         <v>71628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62437</v>
+        <v>63023</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79901</v>
+        <v>78815</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7487035239639718</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6526345866522874</v>
+        <v>0.6587567456715234</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8351768933199595</v>
+        <v>0.8238344112935346</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>137</v>
@@ -4596,19 +4596,19 @@
         <v>147522</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>133609</v>
+        <v>135137</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>158666</v>
+        <v>157928</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7829411399050996</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7091043979974452</v>
+        <v>0.7172121918099109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8420873560068156</v>
+        <v>0.8381697778652928</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>24177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15706</v>
+        <v>15757</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35151</v>
+        <v>35576</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1581868877920408</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.102759034836081</v>
+        <v>0.1030920125419762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2299881189943272</v>
+        <v>0.2327631619166937</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -4721,19 +4721,19 @@
         <v>10378</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5639</v>
+        <v>5209</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17186</v>
+        <v>17380</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1651425463451399</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08973402344290168</v>
+        <v>0.08288631350585797</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2734919907819265</v>
+        <v>0.2765821135165449</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -4742,19 +4742,19 @@
         <v>34555</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24061</v>
+        <v>24878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46864</v>
+        <v>48389</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1602134768462628</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1115598944670531</v>
+        <v>0.1153463093342369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2172864125084781</v>
+        <v>0.2243569154284866</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>128663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>117689</v>
+        <v>117264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>137134</v>
+        <v>137083</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8418131122079592</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7700118810056729</v>
+        <v>0.7672368380833064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.897240965163919</v>
+        <v>0.8969079874580238</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -4792,19 +4792,19 @@
         <v>52462</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45654</v>
+        <v>45460</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57201</v>
+        <v>57631</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8348574536548601</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7265080092180738</v>
+        <v>0.7234178864834552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9102659765570988</v>
+        <v>0.917113686494142</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>173</v>
@@ -4813,19 +4813,19 @@
         <v>181125</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168816</v>
+        <v>167291</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>191619</v>
+        <v>190802</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8397865231537371</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7827135874915219</v>
+        <v>0.7756430845715134</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8884401055329469</v>
+        <v>0.884653690665763</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>47957</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35969</v>
+        <v>33924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62769</v>
+        <v>61428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1640754275798796</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.123063522101223</v>
+        <v>0.1160652431000293</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2147520051565066</v>
+        <v>0.2101639072465473</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -4938,19 +4938,19 @@
         <v>50488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38872</v>
+        <v>37853</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65972</v>
+        <v>63358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.187474951149956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1443423853489816</v>
+        <v>0.1405586263781196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2449720160950061</v>
+        <v>0.2352639073348515</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -4959,19 +4959,19 @@
         <v>98444</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81250</v>
+        <v>81919</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117862</v>
+        <v>118192</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1752964291388252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1446783673143538</v>
+        <v>0.1458703925662647</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2098731825724355</v>
+        <v>0.2104602480336484</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>244327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>229515</v>
+        <v>230856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>256315</v>
+        <v>258360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8359245724201204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7852479948434935</v>
+        <v>0.7898360927534531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.876936477898777</v>
+        <v>0.8839347568999707</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>208</v>
@@ -5009,19 +5009,19 @@
         <v>218816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>203332</v>
+        <v>205946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>230432</v>
+        <v>231451</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.812525048850044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7550279839049939</v>
+        <v>0.7647360926651484</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8556576146510184</v>
+        <v>0.8594413736218803</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>444</v>
@@ -5030,19 +5030,19 @@
         <v>463144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>443726</v>
+        <v>443396</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>480338</v>
+        <v>479669</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8247035708611747</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7901268174275646</v>
+        <v>0.7895397519663515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8553216326856463</v>
+        <v>0.8541296074337352</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>36626</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27409</v>
+        <v>26756</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48712</v>
+        <v>48646</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2198976568114279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1645622860125509</v>
+        <v>0.1606407151942313</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2924640036238963</v>
+        <v>0.2920669590798831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -5155,19 +5155,19 @@
         <v>48456</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37488</v>
+        <v>36808</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63457</v>
+        <v>62892</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1802080959457556</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.139418285585347</v>
+        <v>0.1368881162656122</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2359968279113084</v>
+        <v>0.2338948096797582</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -5176,19 +5176,19 @@
         <v>85082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69754</v>
+        <v>69227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104578</v>
+        <v>103556</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1953892362034805</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1601896620152306</v>
+        <v>0.1589794621113125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2401605143237469</v>
+        <v>0.2378144549058816</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>129932</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>117846</v>
+        <v>117912</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>139149</v>
+        <v>139802</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7801023431885721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7075359963761036</v>
+        <v>0.707933040920117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8354377139874489</v>
+        <v>0.8393592848057687</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>209</v>
@@ -5226,19 +5226,19 @@
         <v>220435</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>205434</v>
+        <v>205999</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>231403</v>
+        <v>232083</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8197919040542444</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7640031720886915</v>
+        <v>0.7661051903202419</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8605817144146529</v>
+        <v>0.8631118837343877</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>335</v>
@@ -5247,19 +5247,19 @@
         <v>350367</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>330871</v>
+        <v>331893</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>365695</v>
+        <v>366222</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8046107637965195</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7598394856762531</v>
+        <v>0.7621855450941185</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8398103379847695</v>
+        <v>0.8410205378886875</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>6686</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2787</v>
+        <v>2842</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12403</v>
+        <v>12538</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.14965488528593</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06238574722341844</v>
+        <v>0.06362197307851768</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2776151391591935</v>
+        <v>0.2806405831882303</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -5372,19 +5372,19 @@
         <v>61781</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47256</v>
+        <v>48234</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77002</v>
+        <v>78090</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1680053356592673</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1285057103005739</v>
+        <v>0.1311650903979249</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2093960501310912</v>
+        <v>0.2123562616537519</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -5393,19 +5393,19 @@
         <v>68467</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>54266</v>
+        <v>53873</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86994</v>
+        <v>85229</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1660173995911674</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1315825269237889</v>
+        <v>0.1306294113077024</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2109411581622437</v>
+        <v>0.2066623462551868</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>37991</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32274</v>
+        <v>32139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41890</v>
+        <v>41835</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.85034511471407</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7223848608408067</v>
+        <v>0.7193594168117698</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9376142527765816</v>
+        <v>0.9363780269214823</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>272</v>
@@ -5443,19 +5443,19 @@
         <v>305951</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>290730</v>
+        <v>289642</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>320476</v>
+        <v>319498</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8319946643407327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7906039498689086</v>
+        <v>0.787643738346248</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8714942896994261</v>
+        <v>0.8688349096020749</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>309</v>
@@ -5464,19 +5464,19 @@
         <v>343941</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>325414</v>
+        <v>327179</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>358142</v>
+        <v>358535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8339826004088325</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7890588418377563</v>
+        <v>0.7933376537448136</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8684174730762113</v>
+        <v>0.8693705886922977</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>155952</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134560</v>
+        <v>136064</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180330</v>
+        <v>179774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1831208474244457</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1580025727371087</v>
+        <v>0.1597679792348446</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2117459338961136</v>
+        <v>0.2110929027092891</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>204</v>
@@ -5589,19 +5589,19 @@
         <v>220884</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>194639</v>
+        <v>195120</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>249192</v>
+        <v>249052</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.190370662836532</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1677513438398873</v>
+        <v>0.1681662946957415</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2147684330439721</v>
+        <v>0.2146479964480116</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>350</v>
@@ -5610,19 +5610,19 @@
         <v>376835</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>342943</v>
+        <v>338032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>413163</v>
+        <v>413093</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.18730185181968</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1704560697491005</v>
+        <v>0.1680150144194515</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2053582764196029</v>
+        <v>0.2053232059243426</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>695682</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>671304</v>
+        <v>671860</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>717074</v>
+        <v>715570</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8168791525755543</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7882540661038867</v>
+        <v>0.7889070972907108</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8419974272628913</v>
+        <v>0.8402320207651554</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>869</v>
@@ -5660,19 +5660,19 @@
         <v>939398</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>911090</v>
+        <v>911230</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>965643</v>
+        <v>965162</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8096293371634681</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7852315669560279</v>
+        <v>0.7853520035519883</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8322486561601128</v>
+        <v>0.8318337053042584</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1535</v>
@@ -5681,19 +5681,19 @@
         <v>1635080</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1598752</v>
+        <v>1598822</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1668972</v>
+        <v>1673883</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8126981481803199</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7946417235803971</v>
+        <v>0.7946767940756574</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8295439302508995</v>
+        <v>0.8319849855805485</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>41612</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29982</v>
+        <v>31252</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53388</v>
+        <v>54349</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3165625223283084</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.228084073571758</v>
+        <v>0.2377435794326121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4061469797777544</v>
+        <v>0.4134521639793666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -6048,19 +6048,19 @@
         <v>40695</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32746</v>
+        <v>32667</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50784</v>
+        <v>49873</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3380499158280768</v>
+        <v>0.3380499158280767</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2720236361387178</v>
+        <v>0.2713606930017624</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4218629822017625</v>
+        <v>0.414291372875784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -6069,19 +6069,19 @@
         <v>82307</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67581</v>
+        <v>68853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97213</v>
+        <v>97459</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.326833928104227</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2683572305267214</v>
+        <v>0.273408388463762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.38602228931448</v>
+        <v>0.3870000902854649</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>89839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78063</v>
+        <v>77102</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101469</v>
+        <v>100199</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6834374776716916</v>
+        <v>0.6834374776716914</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5938530202222455</v>
+        <v>0.5865478360206335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.771915926428242</v>
+        <v>0.7622564205673878</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>116</v>
@@ -6119,19 +6119,19 @@
         <v>79686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69597</v>
+        <v>70508</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87635</v>
+        <v>87714</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6619500841719234</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5781370177982376</v>
+        <v>0.5857086271242161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7279763638612822</v>
+        <v>0.7286393069982375</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>208</v>
@@ -6140,19 +6140,19 @@
         <v>169525</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>154619</v>
+        <v>154373</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>184251</v>
+        <v>182979</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.673166071895773</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.61397771068552</v>
+        <v>0.612999909714535</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7316427694732784</v>
+        <v>0.726591611536238</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>21792</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14824</v>
+        <v>14769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30753</v>
+        <v>30739</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2230499954041351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1517282406361874</v>
+        <v>0.1511608563692312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3147679458531013</v>
+        <v>0.3146232059337539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -6265,19 +6265,19 @@
         <v>24763</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18247</v>
+        <v>17639</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33573</v>
+        <v>31953</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2481432922241279</v>
+        <v>0.2481432922241278</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.182843532460059</v>
+        <v>0.1767504476694736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3364153724588403</v>
+        <v>0.320191109345852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -6286,19 +6286,19 @@
         <v>46556</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36013</v>
+        <v>35819</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58501</v>
+        <v>58987</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2357295942718221</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1823454511044642</v>
+        <v>0.1813650441272065</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2962131641047748</v>
+        <v>0.2986739503323562</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>75910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66949</v>
+        <v>66963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>82878</v>
+        <v>82933</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7769500045958649</v>
+        <v>0.7769500045958648</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6852320541468984</v>
+        <v>0.6853767940662462</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8482717593638125</v>
+        <v>0.8488391436307688</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>107</v>
@@ -6336,19 +6336,19 @@
         <v>75032</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66222</v>
+        <v>67842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81548</v>
+        <v>82156</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7518567077758722</v>
+        <v>0.7518567077758721</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6635846275411593</v>
+        <v>0.6798088906541478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8171564675399404</v>
+        <v>0.8232495523305263</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>190</v>
@@ -6357,19 +6357,19 @@
         <v>150941</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>138996</v>
+        <v>138510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>161484</v>
+        <v>161678</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7642704057281779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7037868358952253</v>
+        <v>0.7013260496676437</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8176545488955358</v>
+        <v>0.8186349558727934</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>18375</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11851</v>
+        <v>11803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27269</v>
+        <v>27780</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1894172843491993</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1221592873547255</v>
+        <v>0.1216739575498202</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2810940885146852</v>
+        <v>0.2863638670607593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -6482,19 +6482,19 @@
         <v>15566</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9876</v>
+        <v>9754</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22972</v>
+        <v>22602</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2902867863367513</v>
+        <v>0.2902867863367512</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1841690966825539</v>
+        <v>0.1818974084261277</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.42840170418553</v>
+        <v>0.4215024456978094</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -6503,19 +6503,19 @@
         <v>33941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24389</v>
+        <v>24807</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45920</v>
+        <v>45822</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2253254948734696</v>
+        <v>0.2253254948734695</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1619123640589652</v>
+        <v>0.1646894331236434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3048460701197215</v>
+        <v>0.3041955515608287</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>78634</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69740</v>
+        <v>69229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85158</v>
+        <v>85206</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8105827156508005</v>
+        <v>0.8105827156508008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7189059114853149</v>
+        <v>0.7136361329392407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8778407126452745</v>
+        <v>0.8783260424501796</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -6553,19 +6553,19 @@
         <v>38057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30651</v>
+        <v>31021</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43747</v>
+        <v>43869</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7097132136632488</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5715982958144705</v>
+        <v>0.5784975543021906</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8158309033174465</v>
+        <v>0.8181025915738721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>144</v>
@@ -6574,19 +6574,19 @@
         <v>116691</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>104712</v>
+        <v>104810</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>126243</v>
+        <v>125825</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7746745051265305</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6951539298802785</v>
+        <v>0.6958044484391712</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8380876359410349</v>
+        <v>0.8353105668763565</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>60613</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48502</v>
+        <v>47555</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75421</v>
+        <v>75924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2622116084900913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2098187480441607</v>
+        <v>0.2057236561049782</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3262715887743229</v>
+        <v>0.3284498634348758</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -6699,19 +6699,19 @@
         <v>52965</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42733</v>
+        <v>43211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65026</v>
+        <v>64577</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2446008519084052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1973471448327297</v>
+        <v>0.1995516977070211</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3002967750308911</v>
+        <v>0.2982259793063666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -6720,19 +6720,19 @@
         <v>113578</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96942</v>
+        <v>98365</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131451</v>
+        <v>133751</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2536938187383888</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2165339590622563</v>
+        <v>0.219712613225562</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.293615743368178</v>
+        <v>0.2987525334694177</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>170547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155739</v>
+        <v>155236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182658</v>
+        <v>183605</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7377883915099087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6737284112256774</v>
+        <v>0.6715501365651246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7901812519558393</v>
+        <v>0.7942763438950218</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>234</v>
@@ -6770,19 +6770,19 @@
         <v>163573</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151512</v>
+        <v>151961</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>173805</v>
+        <v>173327</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7553991480915947</v>
+        <v>0.7553991480915948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6997032249691089</v>
+        <v>0.7017740206936335</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8026528551672704</v>
+        <v>0.8004483022929787</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>410</v>
@@ -6791,19 +6791,19 @@
         <v>334120</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>316247</v>
+        <v>313947</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>350756</v>
+        <v>349333</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7463061812616112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.706384256631822</v>
+        <v>0.7012474665305822</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7834660409377437</v>
+        <v>0.7802873867744379</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>18511</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11823</v>
+        <v>11096</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26245</v>
+        <v>26495</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1959195192035815</v>
+        <v>0.1959195192035816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1251277616378439</v>
+        <v>0.1174392524393745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2777684668887269</v>
+        <v>0.2804157509373731</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -6916,19 +6916,19 @@
         <v>44202</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34677</v>
+        <v>34776</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55677</v>
+        <v>56173</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2026323217502718</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1589679909013022</v>
+        <v>0.1594220857626119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.255235143716771</v>
+        <v>0.2575086484142781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -6937,19 +6937,19 @@
         <v>62713</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49861</v>
+        <v>51338</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78293</v>
+        <v>77618</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2006035058201083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1594923701377508</v>
+        <v>0.1642178286757272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2504374451287721</v>
+        <v>0.2482775472184858</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>75974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68240</v>
+        <v>67990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82662</v>
+        <v>83389</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8040804807964185</v>
+        <v>0.8040804807964183</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7222315331112727</v>
+        <v>0.7195842490626266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.874872238362156</v>
+        <v>0.8825607475606253</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>278</v>
@@ -6987,19 +6987,19 @@
         <v>173938</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>162463</v>
+        <v>161967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183463</v>
+        <v>183364</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7973676782497282</v>
+        <v>0.7973676782497283</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7447648562832291</v>
+        <v>0.742491351585722</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8410320090986977</v>
+        <v>0.8405779142373881</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>357</v>
@@ -7008,19 +7008,19 @@
         <v>249911</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>234331</v>
+        <v>235006</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>262763</v>
+        <v>261286</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7993964941798918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.749562554871228</v>
+        <v>0.751722452781514</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8405076298622493</v>
+        <v>0.8357821713242728</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>5263</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>679</v>
+        <v>987</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14364</v>
+        <v>14196</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2457369434204253</v>
+        <v>0.2457369434204252</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03170416057831387</v>
+        <v>0.04610781698998027</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6707205872230602</v>
+        <v>0.6628462738989646</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -7133,19 +7133,19 @@
         <v>32654</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24031</v>
+        <v>24182</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44043</v>
+        <v>43465</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1677252772254032</v>
+        <v>0.1677252772254031</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1234337287646775</v>
+        <v>0.1242108157677689</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2262210948903122</v>
+        <v>0.2232549687935577</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -7154,19 +7154,19 @@
         <v>37917</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26821</v>
+        <v>28013</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51243</v>
+        <v>52408</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1754563054641819</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.124110562085479</v>
+        <v>0.129626843229548</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2371222833592254</v>
+        <v>0.2425109230021564</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>16153</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7052</v>
+        <v>7220</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20737</v>
+        <v>20429</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7542630565795747</v>
+        <v>0.7542630565795745</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3292794127769405</v>
+        <v>0.3371537261010345</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9682958394216861</v>
+        <v>0.9538921830100198</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>234</v>
@@ -7204,19 +7204,19 @@
         <v>162035</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>150646</v>
+        <v>151224</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>170658</v>
+        <v>170507</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.832274722774597</v>
+        <v>0.8322747227745967</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7737789051096879</v>
+        <v>0.7767450312064422</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8765662712353226</v>
+        <v>0.8757891842322312</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>243</v>
@@ -7225,19 +7225,19 @@
         <v>178188</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>164862</v>
+        <v>163697</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>189284</v>
+        <v>188092</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8245436945358182</v>
+        <v>0.8245436945358181</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7628777166407746</v>
+        <v>0.7574890769978433</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8758894379145211</v>
+        <v>0.8703731567704519</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>166167</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145280</v>
+        <v>142690</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>188826</v>
+        <v>189763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2468232333673467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2157978979962391</v>
+        <v>0.2119499401384537</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2804801102023349</v>
+        <v>0.2818716619215852</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>295</v>
@@ -7350,19 +7350,19 @@
         <v>210846</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>188969</v>
+        <v>188054</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>235990</v>
+        <v>231871</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2334522469233929</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2092292114034949</v>
+        <v>0.2082168176960728</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2612923847929978</v>
+        <v>0.256730804571384</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>467</v>
@@ -7371,19 +7371,19 @@
         <v>377013</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>346539</v>
+        <v>344257</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>411206</v>
+        <v>412240</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2391625525337774</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2198307430214291</v>
+        <v>0.2183833881238413</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2608529060781593</v>
+        <v>0.2615091191205641</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>507057</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>484398</v>
+        <v>483461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>527944</v>
+        <v>530534</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7531767666326533</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7195198897976651</v>
+        <v>0.7181283380784147</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7842021020037608</v>
+        <v>0.7880500598615463</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1028</v>
@@ -7421,19 +7421,19 @@
         <v>692320</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>667176</v>
+        <v>671295</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>714197</v>
+        <v>715112</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7665477530766072</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7387076152070022</v>
+        <v>0.7432691954286162</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7907707885965053</v>
+        <v>0.7917831823039272</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1552</v>
@@ -7442,19 +7442,19 @@
         <v>1199376</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1165183</v>
+        <v>1164149</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1229850</v>
+        <v>1232132</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7608374474662226</v>
+        <v>0.7608374474662225</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7391470939218409</v>
+        <v>0.7384908808794362</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7801692569785709</v>
+        <v>0.7816166118761588</v>
       </c>
     </row>
     <row r="24">
